--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H2">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I2">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J2">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>8.843490185833334</v>
+        <v>0.560963267195111</v>
       </c>
       <c r="R2">
-        <v>79.5914116725</v>
+        <v>5.048669404756</v>
       </c>
       <c r="S2">
-        <v>0.270714102272278</v>
+        <v>0.0126766863031922</v>
       </c>
       <c r="T2">
-        <v>0.270714102272278</v>
+        <v>0.0126766863031922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H3">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I3">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J3">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
-        <v>14.25413056666667</v>
+        <v>0.9509012183288887</v>
       </c>
       <c r="R3">
-        <v>128.2871751</v>
+        <v>8.558110964959999</v>
       </c>
       <c r="S3">
-        <v>0.4363429007032233</v>
+        <v>0.02148853080942633</v>
       </c>
       <c r="T3">
-        <v>0.4363429007032233</v>
+        <v>0.02148853080942634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H4">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I4">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J4">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>4.503357334583333</v>
+        <v>0.9045947221166665</v>
       </c>
       <c r="R4">
-        <v>40.53021601125</v>
+        <v>8.141352499049999</v>
       </c>
       <c r="S4">
-        <v>0.1378553390601322</v>
+        <v>0.02044209343890573</v>
       </c>
       <c r="T4">
-        <v>0.1378553390601322</v>
+        <v>0.02044209343890573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H5">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I5">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J5">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>2.2836391025</v>
+        <v>0.1604255550884444</v>
       </c>
       <c r="R5">
-        <v>20.5527519225</v>
+        <v>1.443829995796</v>
       </c>
       <c r="S5">
-        <v>0.06990603218370657</v>
+        <v>0.003625307673067926</v>
       </c>
       <c r="T5">
-        <v>0.06990603218370656</v>
+        <v>0.003625307673067927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H6">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I6">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J6">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N6">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q6">
-        <v>0.8234452792308889</v>
+        <v>8.408910935833333</v>
       </c>
       <c r="R6">
-        <v>7.411007513078</v>
+        <v>75.6801984225</v>
       </c>
       <c r="S6">
-        <v>0.02520704437422628</v>
+        <v>0.1900251448157042</v>
       </c>
       <c r="T6">
-        <v>0.02520704437422627</v>
+        <v>0.1900251448157042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H7">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I7">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J7">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P7">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q7">
-        <v>1.327247079831111</v>
+        <v>14.25413056666667</v>
       </c>
       <c r="R7">
-        <v>11.94522371848</v>
+        <v>128.2871751</v>
       </c>
       <c r="S7">
-        <v>0.04062926448265449</v>
+        <v>0.3221158180675103</v>
       </c>
       <c r="T7">
-        <v>0.04062926448265448</v>
+        <v>0.3221158180675104</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H8">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I8">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J8">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N8">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q8">
-        <v>0.4193218129865555</v>
+        <v>13.55999028125</v>
       </c>
       <c r="R8">
-        <v>3.773896316879</v>
+        <v>122.03991253125</v>
       </c>
       <c r="S8">
-        <v>0.01283614565974018</v>
+        <v>0.3064295883921993</v>
       </c>
       <c r="T8">
-        <v>0.01283614565974018</v>
+        <v>0.3064295883921994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H9">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I9">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J9">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N9">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O9">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P9">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q9">
-        <v>0.2126368434753333</v>
+        <v>2.404799535833333</v>
       </c>
       <c r="R9">
-        <v>1.913731591278</v>
+        <v>21.6431958225</v>
       </c>
       <c r="S9">
-        <v>0.006509171264038833</v>
+        <v>0.05434382449005934</v>
       </c>
       <c r="T9">
-        <v>0.006509171264038831</v>
+        <v>0.05434382449005935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.122161</v>
+      </c>
+      <c r="I10">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J10">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>16.28844733333333</v>
+      </c>
+      <c r="N10">
+        <v>48.865342</v>
+      </c>
+      <c r="O10">
+        <v>0.2176904746803693</v>
+      </c>
+      <c r="P10">
+        <v>0.2176904746803693</v>
+      </c>
+      <c r="Q10">
+        <v>0.6632710048957778</v>
+      </c>
+      <c r="R10">
+        <v>5.969439044062</v>
+      </c>
+      <c r="S10">
+        <v>0.01498864356147295</v>
+      </c>
+      <c r="T10">
+        <v>0.01498864356147295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.122161</v>
+      </c>
+      <c r="I11">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J11">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>27.61090666666666</v>
+      </c>
+      <c r="N11">
+        <v>82.83271999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.3690119294748028</v>
+      </c>
+      <c r="P11">
+        <v>0.3690119294748029</v>
+      </c>
+      <c r="Q11">
+        <v>1.124325323102222</v>
+      </c>
+      <c r="R11">
+        <v>10.11892790792</v>
+      </c>
+      <c r="S11">
+        <v>0.02540758059786611</v>
+      </c>
+      <c r="T11">
+        <v>0.02540758059786611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.122161</v>
+      </c>
+      <c r="I12">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J12">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>26.266325</v>
+      </c>
+      <c r="N12">
+        <v>78.798975</v>
+      </c>
+      <c r="O12">
+        <v>0.3510419771967738</v>
+      </c>
+      <c r="P12">
+        <v>0.3510419771967739</v>
+      </c>
+      <c r="Q12">
+        <v>1.069573509441667</v>
+      </c>
+      <c r="R12">
+        <v>9.626161584975</v>
+      </c>
+      <c r="S12">
+        <v>0.02417029536566874</v>
+      </c>
+      <c r="T12">
+        <v>0.02417029536566874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.122161</v>
+      </c>
+      <c r="I13">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J13">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.658207333333333</v>
+      </c>
+      <c r="N13">
+        <v>13.974622</v>
+      </c>
+      <c r="O13">
+        <v>0.06225561864805391</v>
+      </c>
+      <c r="P13">
+        <v>0.06225561864805392</v>
+      </c>
+      <c r="Q13">
+        <v>0.1896837553491111</v>
+      </c>
+      <c r="R13">
+        <v>1.707153798142</v>
+      </c>
+      <c r="S13">
+        <v>0.004286486484926643</v>
+      </c>
+      <c r="T13">
+        <v>0.004286486484926644</v>
       </c>
     </row>
   </sheetData>
